--- a/NRI_STLF_Data/WeatherData/T_Tehran/T_tehran95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_Tehran/T_tehran95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_tehran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_Tehran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t>Rain</t>
   </si>
@@ -260,12 +260,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -599,13 +599,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -682,7 +682,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -762,7 +762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -842,7 +842,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -919,7 +919,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -996,7 +996,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -13067,8 +13067,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>37</v>
+      </c>
+      <c r="G161">
+        <v>30</v>
+      </c>
+      <c r="H161">
+        <v>24</v>
+      </c>
+      <c r="I161">
+        <v>8</v>
+      </c>
+      <c r="J161">
+        <v>-1</v>
+      </c>
+      <c r="K161">
+        <v>-11</v>
+      </c>
+      <c r="L161">
+        <v>32</v>
+      </c>
+      <c r="M161">
+        <v>14</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1020</v>
+      </c>
+      <c r="P161">
+        <v>1016</v>
+      </c>
+      <c r="Q161">
+        <v>1005</v>
+      </c>
+      <c r="R161">
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>8</v>
+      </c>
+      <c r="U161">
+        <v>23</v>
+      </c>
+      <c r="V161">
+        <v>10</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -13084,8 +13144,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>36</v>
+      </c>
+      <c r="G162">
+        <v>30</v>
+      </c>
+      <c r="H162">
+        <v>24</v>
+      </c>
+      <c r="I162">
+        <v>6</v>
+      </c>
+      <c r="J162">
+        <v>-1</v>
+      </c>
+      <c r="K162">
+        <v>-6</v>
+      </c>
+      <c r="L162">
+        <v>25</v>
+      </c>
+      <c r="M162">
+        <v>13</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <v>1021</v>
+      </c>
+      <c r="P162">
+        <v>1017</v>
+      </c>
+      <c r="Q162">
+        <v>1006</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>10</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>10</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -13101,8 +13221,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>36</v>
+      </c>
+      <c r="G163">
+        <v>30</v>
+      </c>
+      <c r="H163">
+        <v>24</v>
+      </c>
+      <c r="I163">
+        <v>8</v>
+      </c>
+      <c r="J163">
+        <v>3</v>
+      </c>
+      <c r="K163">
+        <v>-1</v>
+      </c>
+      <c r="L163">
+        <v>32</v>
+      </c>
+      <c r="M163">
+        <v>17</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163">
+        <v>1019</v>
+      </c>
+      <c r="P163">
+        <v>1016</v>
+      </c>
+      <c r="Q163">
+        <v>1005</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>14</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="AA163">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13118,8 +13298,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>37</v>
+      </c>
+      <c r="G164">
+        <v>31</v>
+      </c>
+      <c r="H164">
+        <v>26</v>
+      </c>
+      <c r="I164">
+        <v>8</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>-4</v>
+      </c>
+      <c r="L164">
+        <v>27</v>
+      </c>
+      <c r="M164">
+        <v>17</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164">
+        <v>1018</v>
+      </c>
+      <c r="P164">
+        <v>1015</v>
+      </c>
+      <c r="Q164">
+        <v>1003</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>19</v>
+      </c>
+      <c r="V164">
+        <v>8</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>2</v>
+      </c>
+      <c r="AA164">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13135,8 +13375,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>35</v>
+      </c>
+      <c r="G165">
+        <v>30</v>
+      </c>
+      <c r="H165">
+        <v>25</v>
+      </c>
+      <c r="I165">
+        <v>8</v>
+      </c>
+      <c r="J165">
+        <v>4</v>
+      </c>
+      <c r="K165">
+        <v>-4</v>
+      </c>
+      <c r="L165">
+        <v>28</v>
+      </c>
+      <c r="M165">
+        <v>18</v>
+      </c>
+      <c r="N165">
+        <v>7</v>
+      </c>
+      <c r="O165">
+        <v>1017</v>
+      </c>
+      <c r="P165">
+        <v>1013</v>
+      </c>
+      <c r="Q165">
+        <v>1002</v>
+      </c>
+      <c r="R165">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>19</v>
+      </c>
+      <c r="V165">
+        <v>10</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13152,8 +13452,71 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>36</v>
+      </c>
+      <c r="G166">
+        <v>31</v>
+      </c>
+      <c r="H166">
+        <v>26</v>
+      </c>
+      <c r="I166">
+        <v>10</v>
+      </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>34</v>
+      </c>
+      <c r="M166">
+        <v>18</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166">
+        <v>1013</v>
+      </c>
+      <c r="P166">
+        <v>1010</v>
+      </c>
+      <c r="Q166">
+        <v>998</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>10</v>
+      </c>
+      <c r="U166">
+        <v>23</v>
+      </c>
+      <c r="V166">
+        <v>8</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>4</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13169,8 +13532,71 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>35</v>
+      </c>
+      <c r="G167">
+        <v>30</v>
+      </c>
+      <c r="H167">
+        <v>26</v>
+      </c>
+      <c r="I167">
+        <v>12</v>
+      </c>
+      <c r="J167">
+        <v>6</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>39</v>
+      </c>
+      <c r="M167">
+        <v>20</v>
+      </c>
+      <c r="N167">
+        <v>6</v>
+      </c>
+      <c r="O167">
+        <v>1013</v>
+      </c>
+      <c r="P167">
+        <v>1010</v>
+      </c>
+      <c r="Q167">
+        <v>998</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>9</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>37</v>
+      </c>
+      <c r="V167">
+        <v>13</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>2</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA167">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13186,8 +13612,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168">
+        <v>29</v>
+      </c>
+      <c r="H168">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13203,8 +13638,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>35</v>
+      </c>
+      <c r="G169">
+        <v>30</v>
+      </c>
+      <c r="H169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13220,8 +13664,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>37</v>
+      </c>
+      <c r="G170">
+        <v>31</v>
+      </c>
+      <c r="H170">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13237,8 +13690,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>36</v>
+      </c>
+      <c r="G171">
+        <v>30</v>
+      </c>
+      <c r="H171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13254,8 +13716,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>34</v>
+      </c>
+      <c r="G172">
+        <v>28</v>
+      </c>
+      <c r="H172">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13272,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13289,7 +13760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13306,7 +13777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13323,7 +13794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13340,7 +13811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13357,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13374,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13391,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13408,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13425,7 +13896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13442,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13459,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13476,7 +13947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13493,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13510,7 +13981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13527,7 +13998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13544,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13561,7 +14032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13578,7 +14049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13595,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13612,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13629,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13646,7 +14117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13663,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13680,7 +14151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13697,7 +14168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13714,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13731,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13748,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13765,7 +14236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13782,7 +14253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13799,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13816,7 +14287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13833,7 +14304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13850,7 +14321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13867,7 +14338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13884,7 +14355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13901,7 +14372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13918,7 +14389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13935,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13952,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13969,7 +14440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13986,7 +14457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -14003,7 +14474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -14020,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -14037,7 +14508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -14054,7 +14525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -14071,7 +14542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -14088,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14105,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14122,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14139,7 +14610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14156,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14173,7 +14644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14190,7 +14661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14207,7 +14678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14224,7 +14695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14241,7 +14712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14258,7 +14729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14275,7 +14746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14292,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14309,7 +14780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14326,7 +14797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14343,7 +14814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14360,7 +14831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14377,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14394,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14411,7 +14882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14428,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14445,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14462,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14479,7 +14950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14496,7 +14967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14513,7 +14984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14530,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14547,7 +15018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14564,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14581,7 +15052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14598,7 +15069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14615,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14632,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14649,7 +15120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14666,7 +15137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14683,7 +15154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14700,7 +15171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14717,7 +15188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14734,7 +15205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14751,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14768,7 +15239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14785,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14802,7 +15273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14819,7 +15290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14836,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14853,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14870,7 +15341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14887,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14904,7 +15375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14921,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14938,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14955,7 +15426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14972,7 +15443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14989,7 +15460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -15006,7 +15477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -15023,7 +15494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -15040,7 +15511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -15057,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -15074,7 +15545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -15091,7 +15562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15108,7 +15579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15125,7 +15596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15142,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15159,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15176,7 +15647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15193,7 +15664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15210,7 +15681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15227,7 +15698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15244,7 +15715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15261,7 +15732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15278,7 +15749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15295,7 +15766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15312,7 +15783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15329,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15346,7 +15817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15363,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15380,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15397,7 +15868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15414,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15431,7 +15902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15448,7 +15919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15465,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15482,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15499,7 +15970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15516,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15533,7 +16004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15550,7 +16021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15567,7 +16038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15584,7 +16055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15601,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15618,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15635,7 +16106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15652,7 +16123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15669,7 +16140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15686,7 +16157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15703,7 +16174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15720,7 +16191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15737,7 +16208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15754,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15771,7 +16242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15788,7 +16259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15805,7 +16276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15822,7 +16293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15839,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15856,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15873,7 +16344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15890,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15907,7 +16378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15924,7 +16395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15941,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15958,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15975,7 +16446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15992,7 +16463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -16009,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -16026,7 +16497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -16043,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -16060,7 +16531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -16077,7 +16548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -16094,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16111,7 +16582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16128,7 +16599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16145,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16162,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16179,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16196,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16213,7 +16684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16230,7 +16701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16247,7 +16718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16264,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16281,7 +16752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16298,7 +16769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16315,7 +16786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16332,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16349,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16366,7 +16837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16383,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16400,7 +16871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16417,7 +16888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16434,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16451,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16468,7 +16939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16485,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16502,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16519,7 +16990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16536,7 +17007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16564,7 +17035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16576,7 +17047,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
